--- a/ФайлСИсходнымиДанными.xlsx
+++ b/ФайлСИсходнымиДанными.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\testTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A8821-49D5-484B-B9B0-A63DD4502D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7714B7-B9C7-4CFB-9AF9-4FAE6850645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C04F3F0-2C79-4763-A8F1-41E634217C8D}"/>
+    <workbookView xWindow="5565" yWindow="4230" windowWidth="21600" windowHeight="11295" xr2:uid="{4C04F3F0-2C79-4763-A8F1-41E634217C8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +105,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -109,8 +123,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,7 +440,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,24 +454,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,16 +512,16 @@
       <c r="B4">
         <v>20111510</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>4590</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>45</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>67</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>110</v>
       </c>
     </row>
@@ -517,16 +532,16 @@
       <c r="B5">
         <v>20111510</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>347</v>
       </c>
     </row>
@@ -537,16 +552,16 @@
       <c r="B6">
         <v>20111610</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3490</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>87</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -557,16 +572,16 @@
       <c r="B7">
         <v>20121510</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>123</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>678</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>120</v>
       </c>
     </row>
@@ -577,16 +592,16 @@
       <c r="B8">
         <v>20122510</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>445</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>24</v>
       </c>
     </row>
@@ -597,16 +612,16 @@
       <c r="B9">
         <v>20122510</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>7899</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>78</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>89</v>
       </c>
     </row>
@@ -617,16 +632,16 @@
       <c r="B10">
         <v>20122610</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
     </row>
